--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="876">
   <si>
     <t>BookID</t>
   </si>
@@ -2612,6 +2612,33 @@
   </si>
   <si>
     <t>Tech Tools And Communication</t>
+  </si>
+  <si>
+    <t>Way Of The Wolf</t>
+  </si>
+  <si>
+    <t>Jordan Belfort</t>
+  </si>
+  <si>
+    <t>Stratight Line Selling : Master Sales and Art Of Persuassion</t>
+  </si>
+  <si>
+    <t>Craig Scoogie</t>
+  </si>
+  <si>
+    <t>978-1-4736-7481-3</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Biography Of Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>The NY Times</t>
+  </si>
+  <si>
+    <t>978-0-7432-5807-4</t>
   </si>
 </sst>
 </file>
@@ -2633,14 +2660,24 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2649,7 +2686,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2662,9 +2699,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -17056,7 +17094,7 @@
       <c r="AD159" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE159" s="4">
+      <c r="AE159" s="2">
         <v>10.0</v>
       </c>
       <c r="AF159" s="2" t="s">
@@ -17201,7 +17239,7 @@
       <c r="P161" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q161" s="4" t="s">
+      <c r="Q161" s="2" t="s">
         <v>163</v>
       </c>
       <c r="R161" s="2" t="s">
@@ -17391,7 +17429,7 @@
       <c r="V163" s="2">
         <v>0.0</v>
       </c>
-      <c r="X163" s="4" t="s">
+      <c r="X163" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Y163" s="2" t="s">
@@ -17462,10 +17500,10 @@
       <c r="N164" s="2">
         <v>2017.0</v>
       </c>
-      <c r="O164" s="4" t="s">
+      <c r="O164" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="P164" s="4" t="s">
+      <c r="P164" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q164" s="2" t="s">
@@ -17474,7 +17512,7 @@
       <c r="R164" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S164" s="4" t="s">
+      <c r="S164" s="2" t="s">
         <v>803</v>
       </c>
       <c r="V164" s="2">
@@ -17993,7 +18031,7 @@
       <c r="M170" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N170" s="4">
+      <c r="N170" s="2">
         <v>2018.0</v>
       </c>
       <c r="O170" s="2" t="s">
@@ -18322,7 +18360,7 @@
       <c r="D174" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="2" t="s">
         <v>833</v>
       </c>
       <c r="F174" s="2" t="s">
@@ -18391,7 +18429,7 @@
       <c r="AD174" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE174" s="4">
+      <c r="AE174" s="2">
         <v>8.7</v>
       </c>
       <c r="AF174" s="2" t="s">
@@ -18474,7 +18512,7 @@
       <c r="AB175" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AC175" s="4" t="s">
+      <c r="AC175" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AD175" s="2" t="s">
@@ -18515,7 +18553,7 @@
       <c r="I176" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" s="2" t="s">
         <v>844</v>
       </c>
       <c r="K176" s="2">
@@ -18755,180 +18793,364 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2">
+      <c r="A179" s="4">
         <v>178.0</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="4" t="s">
         <v>856</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="D179" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F179" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G179" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="H179" s="2" t="s">
+      <c r="H179" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="I179" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="K179" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L179" s="2" t="s">
+      <c r="K179" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L179" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N179" s="2">
+      <c r="N179" s="4">
         <v>2022.0</v>
       </c>
-      <c r="O179" s="2" t="s">
+      <c r="O179" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P179" s="2" t="s">
+      <c r="P179" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="Q179" s="2" t="s">
+      <c r="Q179" s="4" t="s">
         <v>268</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S179" s="2" t="s">
+      <c r="S179" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V179" s="2">
+      <c r="T179" s="5"/>
+      <c r="U179" s="5"/>
+      <c r="V179" s="4">
         <v>0.0</v>
       </c>
-      <c r="X179" s="2" t="s">
+      <c r="W179" s="5"/>
+      <c r="X179" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Y179" s="2" t="s">
+      <c r="Y179" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z179" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AA179" s="2" t="s">
+      <c r="Z179" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA179" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AB179" s="2" t="s">
+      <c r="AB179" s="4" t="s">
         <v>59</v>
       </c>
       <c r="AC179" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD179" s="2" t="s">
+      <c r="AD179" s="4" t="s">
         <v>51</v>
       </c>
       <c r="AE179" s="4">
         <v>10.0</v>
       </c>
-      <c r="AF179" s="2" t="s">
+      <c r="AF179" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2">
+      <c r="A180" s="4">
         <v>179.0</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="4" t="s">
         <v>856</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="D180" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F180" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G180" s="4" t="s">
         <v>860</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="I180" s="4" t="s">
         <v>858</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="K180" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L180" s="2" t="s">
+      <c r="K180" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L180" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N180" s="2">
+      <c r="N180" s="4">
         <v>2022.0</v>
       </c>
-      <c r="O180" s="2" t="s">
+      <c r="O180" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P180" s="2" t="s">
+      <c r="P180" s="4" t="s">
         <v>232</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="R180" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S180" s="2" t="s">
+      <c r="R180" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S180" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V180" s="2">
+      <c r="T180" s="5"/>
+      <c r="U180" s="5"/>
+      <c r="V180" s="4">
         <v>0.0</v>
       </c>
-      <c r="X180" s="2" t="s">
+      <c r="W180" s="5"/>
+      <c r="X180" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Y180" s="2" t="s">
+      <c r="Y180" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z180" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AA180" s="2" t="s">
+      <c r="Z180" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="AA180" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AB180" s="2" t="s">
+      <c r="AB180" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AC180" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD180" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE180" s="2">
+      <c r="AC180" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD180" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE180" s="4">
         <v>10.0</v>
       </c>
-      <c r="AF180" s="2" t="s">
+      <c r="AF180" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H181" s="2">
+        <v>248.0</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L181" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N181" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S181" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V181" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X181" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y181" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z181" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB181" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE181" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AF181" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" s="2">
+        <v>586.0</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K182" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L182" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N182" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V182" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X182" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y182" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z182" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB182" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE182" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AF182" s="2" t="s">
         <v>101</v>
       </c>
     </row>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="890">
   <si>
     <t>BookID</t>
   </si>
@@ -2639,6 +2639,48 @@
   </si>
   <si>
     <t>978-0-7432-5807-4</t>
+  </si>
+  <si>
+    <t>The Daily Laws</t>
+  </si>
+  <si>
+    <t>366 Medications On Power , Seduction , Mastery , Strategy and Human Nature</t>
+  </si>
+  <si>
+    <t>978-1-7881-6854-0</t>
+  </si>
+  <si>
+    <t>The 33 Strategies of War</t>
+  </si>
+  <si>
+    <t>Strategies Of War</t>
+  </si>
+  <si>
+    <t>978-1-8619-7978-0</t>
+  </si>
+  <si>
+    <t>The 50th Law</t>
+  </si>
+  <si>
+    <t>Biography Of 50cent</t>
+  </si>
+  <si>
+    <t>978-1-8466-8079-3</t>
+  </si>
+  <si>
+    <t>The Almanack Of Naval Ravikant</t>
+  </si>
+  <si>
+    <t>Eric Jorgenson</t>
+  </si>
+  <si>
+    <t>Insights From Angel Investor Naval Ravikanth</t>
+  </si>
+  <si>
+    <t>Shane Parrish</t>
+  </si>
+  <si>
+    <t>978-93-5489-389-6</t>
   </si>
 </sst>
 </file>
@@ -2926,7 +2968,8 @@
     <col customWidth="1" min="3" max="3" width="68.43"/>
     <col customWidth="1" min="4" max="4" width="42.86"/>
     <col customWidth="1" min="5" max="5" width="33.43"/>
-    <col customWidth="1" min="6" max="8" width="61.0"/>
+    <col customWidth="1" min="6" max="6" width="68.43"/>
+    <col customWidth="1" min="7" max="8" width="61.0"/>
     <col customWidth="1" min="9" max="9" width="51.71"/>
     <col customWidth="1" min="14" max="14" width="16.57"/>
     <col customWidth="1" min="17" max="17" width="29.71"/>
@@ -19154,6 +19197,362 @@
         <v>101</v>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H183" s="2">
+        <v>453.0</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K183" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N183" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S183" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V183" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X183" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y183" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z183" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA183" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB183" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD183" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE183" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AF183" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>183.0</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H184" s="2">
+        <v>471.0</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K184" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N184" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V184" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X184" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y184" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="Z184" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA184" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD184" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE184" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AF184" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H185" s="2">
+        <v>291.0</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K185" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N185" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P185" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V185" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X185" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y185" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="Z185" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA185" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB185" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD185" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE185" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="AF185" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H186" s="2">
+        <v>241.0</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K186" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N186" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="R186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S186" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V186" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y186" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="Z186" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA186" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB186" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD186" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE186" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AF186" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="904">
   <si>
     <t>BookID</t>
   </si>
@@ -2681,6 +2681,48 @@
   </si>
   <si>
     <t>978-93-5489-389-6</t>
+  </si>
+  <si>
+    <t>I Have A Dream</t>
+  </si>
+  <si>
+    <t>Stories of 20 Social Entrepruners</t>
+  </si>
+  <si>
+    <t>978-93-80658-38-4</t>
+  </si>
+  <si>
+    <t>An Era Of Darkness</t>
+  </si>
+  <si>
+    <t>Sashi Tharoor</t>
+  </si>
+  <si>
+    <t>The British Empire In India</t>
+  </si>
+  <si>
+    <t>Business Standard</t>
+  </si>
+  <si>
+    <t>Indian History</t>
+  </si>
+  <si>
+    <t>978-93-83064-65-6</t>
+  </si>
+  <si>
+    <t>Life Lessons For Loving The Way You Live</t>
+  </si>
+  <si>
+    <t>Jennifer Read Hawthorne</t>
+  </si>
+  <si>
+    <t>7 essential ingredients for finding balance in life</t>
+  </si>
+  <si>
+    <t>Rs. 2032</t>
+  </si>
+  <si>
+    <t>978-81-89975-34-0</t>
   </si>
 </sst>
 </file>
@@ -2692,20 +2734,24 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -19553,6 +19599,273 @@
         <v>101</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>186.0</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H187" s="2">
+        <v>349.0</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="K187" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N187" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P187" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V187" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X187" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y187" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="Z187" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB187" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD187" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE187" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="AF187" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>187.0</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H188" s="2">
+        <v>333.0</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K188" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L188" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N188" s="2">
+        <v>2016.0</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="R188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V188" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y188" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="Z188" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB188" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE188" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="AF188" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H189" s="2">
+        <v>331.0</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="K189" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L189" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N189" s="2">
+        <v>2008.0</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="R189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S189" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V189" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X189" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y189" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="Z189" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA189" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB189" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC189" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD189" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE189" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="AF189" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="CompleteBookDBTill4thMarch2022" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CompleteBookDBTill13thApril2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4171" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="919">
   <si>
     <t>BookID</t>
   </si>
@@ -568,9 +568,15 @@
     <t>War And Strategy</t>
   </si>
   <si>
+    <t>Completed Books</t>
+  </si>
+  <si>
     <t>Rs. 299</t>
   </si>
   <si>
+    <t>1-1-C</t>
+  </si>
+  <si>
     <t>War</t>
   </si>
   <si>
@@ -2299,12 +2305,6 @@
     <t>How To Focus</t>
   </si>
   <si>
-    <t>Completed Books</t>
-  </si>
-  <si>
-    <t>1-1-C</t>
-  </si>
-  <si>
     <t>Focus</t>
   </si>
   <si>
@@ -2723,6 +2723,51 @@
   </si>
   <si>
     <t>978-81-89975-34-0</t>
+  </si>
+  <si>
+    <t>Thandai Periyar Sindhanai Kalanjiyam</t>
+  </si>
+  <si>
+    <t>T. Kovendhan</t>
+  </si>
+  <si>
+    <t>Works Of Thandai Periyar</t>
+  </si>
+  <si>
+    <t>Social Improvement</t>
+  </si>
+  <si>
+    <t>Self Respect Movement</t>
+  </si>
+  <si>
+    <t>Tamilanai Uyarthiya Thalaimagan Uraigal</t>
+  </si>
+  <si>
+    <t>K. Velnambi</t>
+  </si>
+  <si>
+    <t>Works Of Aringar Anna</t>
+  </si>
+  <si>
+    <t>Talks Of Arignar Anna</t>
+  </si>
+  <si>
+    <t>Conversations With Milton H Ericson Changing Individuals</t>
+  </si>
+  <si>
+    <t>Milton H. Ericson</t>
+  </si>
+  <si>
+    <t>Psychological Works Of Milton H. Ericson</t>
+  </si>
+  <si>
+    <t>Therapy</t>
+  </si>
+  <si>
+    <t>0-931513-01-4</t>
+  </si>
+  <si>
+    <t>My Voice Will Go With You</t>
   </si>
 </sst>
 </file>
@@ -3008,23 +3053,24 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="22.57"/>
-    <col customWidth="1" min="3" max="3" width="68.43"/>
-    <col customWidth="1" min="4" max="4" width="42.86"/>
-    <col customWidth="1" min="5" max="5" width="33.43"/>
-    <col customWidth="1" min="6" max="6" width="68.43"/>
-    <col customWidth="1" min="7" max="8" width="61.0"/>
-    <col customWidth="1" min="9" max="9" width="51.71"/>
-    <col customWidth="1" min="14" max="14" width="16.57"/>
-    <col customWidth="1" min="17" max="17" width="29.71"/>
-    <col customWidth="1" min="19" max="21" width="18.71"/>
-    <col customWidth="1" min="23" max="23" width="25.29"/>
-    <col customWidth="1" min="25" max="25" width="20.71"/>
-    <col customWidth="1" min="28" max="28" width="17.86"/>
-    <col customWidth="1" min="30" max="30" width="20.43"/>
-    <col customWidth="1" min="31" max="31" width="36.14"/>
+    <col customWidth="1" min="1" max="2" width="19.75"/>
+    <col customWidth="1" min="3" max="3" width="59.88"/>
+    <col customWidth="1" min="4" max="4" width="37.5"/>
+    <col customWidth="1" min="5" max="5" width="29.25"/>
+    <col customWidth="1" min="6" max="6" width="59.88"/>
+    <col customWidth="1" min="7" max="8" width="53.38"/>
+    <col customWidth="1" min="9" max="9" width="45.25"/>
+    <col customWidth="1" min="14" max="14" width="14.5"/>
+    <col customWidth="1" min="16" max="16" width="16.5"/>
+    <col customWidth="1" min="17" max="17" width="26.0"/>
+    <col customWidth="1" min="19" max="21" width="16.38"/>
+    <col customWidth="1" min="23" max="23" width="22.13"/>
+    <col customWidth="1" min="25" max="25" width="18.13"/>
+    <col customWidth="1" min="28" max="28" width="15.63"/>
+    <col customWidth="1" min="30" max="30" width="17.88"/>
+    <col customWidth="1" min="31" max="31" width="31.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5195,7 +5241,7 @@
         <v>184</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="H25" s="2">
         <v>137.0</v>
@@ -5204,13 +5250,13 @@
         <v>70</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K25" s="2">
         <v>1.0</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>41</v>
@@ -5222,10 +5268,10 @@
         <v>42</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>34</v>
@@ -5272,16 +5318,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>37</v>
@@ -5314,7 +5360,7 @@
         <v>124</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>34</v>
@@ -5361,16 +5407,16 @@
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>37</v>
@@ -5379,7 +5425,7 @@
         <v>385.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>151</v>
@@ -5418,7 +5464,7 @@
         <v>47</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="2">
         <v>1.0</v>
@@ -5450,16 +5496,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>37</v>
@@ -5507,7 +5553,7 @@
         <v>47</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z28" s="2">
         <v>1.0</v>
@@ -5539,16 +5585,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>37</v>
@@ -5560,7 +5606,7 @@
         <v>70</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" s="2">
         <v>1.0</v>
@@ -5596,7 +5642,7 @@
         <v>47</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Z29" s="2">
         <v>1.0</v>
@@ -5628,16 +5674,16 @@
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>37</v>
@@ -5646,7 +5692,7 @@
         <v>179.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>151</v>
@@ -5670,7 +5716,7 @@
         <v>124</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>51</v>
@@ -5685,7 +5731,7 @@
         <v>47</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Z30" s="2">
         <v>1.0</v>
@@ -5717,16 +5763,16 @@
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>37</v>
@@ -5738,7 +5784,7 @@
         <v>70</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="2">
         <v>1.0</v>
@@ -5774,7 +5820,7 @@
         <v>47</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z31" s="2">
         <v>1.0</v>
@@ -5806,16 +5852,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>37</v>
@@ -5827,7 +5873,7 @@
         <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K32" s="2">
         <v>1.0</v>
@@ -5848,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R32" s="2" t="s">
         <v>34</v>
@@ -5863,7 +5909,7 @@
         <v>78</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z32" s="2">
         <v>1.0</v>
@@ -5895,16 +5941,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>37</v>
@@ -5916,7 +5962,7 @@
         <v>70</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K33" s="2">
         <v>1.0</v>
@@ -5952,7 +5998,7 @@
         <v>47</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Z33" s="2">
         <v>1.0</v>
@@ -5984,16 +6030,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>37</v>
@@ -6002,10 +6048,10 @@
         <v>594.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K34" s="2">
         <v>1.0</v>
@@ -6023,10 +6069,10 @@
         <v>42</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>51</v>
@@ -6041,7 +6087,7 @@
         <v>47</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Z34" s="2">
         <v>1.0</v>
@@ -6073,16 +6119,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>37</v>
@@ -6091,7 +6137,7 @@
         <v>352.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>57</v>
@@ -6130,7 +6176,7 @@
         <v>47</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z35" s="2">
         <v>1.0</v>
@@ -6162,16 +6208,16 @@
         <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>37</v>
@@ -6180,7 +6226,7 @@
         <v>594.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>151</v>
@@ -6219,7 +6265,7 @@
         <v>47</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Z36" s="2">
         <v>1.0</v>
@@ -6251,16 +6297,16 @@
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>37</v>
@@ -6269,10 +6315,10 @@
         <v>233.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K37" s="2">
         <v>1.0</v>
@@ -6308,7 +6354,7 @@
         <v>47</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z37" s="2">
         <v>1.0</v>
@@ -6340,7 +6386,7 @@
         <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>51</v>
@@ -6349,7 +6395,7 @@
         <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>37</v>
@@ -6397,7 +6443,7 @@
         <v>47</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z38" s="2">
         <v>1.0</v>
@@ -6429,16 +6475,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>37</v>
@@ -6450,7 +6496,7 @@
         <v>70</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K39" s="2">
         <v>1.0</v>
@@ -6486,7 +6532,7 @@
         <v>47</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z39" s="2">
         <v>1.0</v>
@@ -6518,16 +6564,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>37</v>
@@ -6557,10 +6603,10 @@
         <v>42</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R40" s="2" t="s">
         <v>34</v>
@@ -6607,16 +6653,16 @@
         <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>37</v>
@@ -6625,10 +6671,10 @@
         <v>238.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K41" s="2">
         <v>1.0</v>
@@ -6646,10 +6692,10 @@
         <v>42</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>34</v>
@@ -6664,7 +6710,7 @@
         <v>47</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Z41" s="2">
         <v>1.0</v>
@@ -6696,16 +6742,16 @@
         <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>37</v>
@@ -6738,7 +6784,7 @@
         <v>124</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>34</v>
@@ -6753,7 +6799,7 @@
         <v>47</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Z42" s="2">
         <v>1.0</v>
@@ -6785,16 +6831,16 @@
         <v>32</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>37</v>
@@ -6803,10 +6849,10 @@
         <v>187.0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K43" s="2">
         <v>1.0</v>
@@ -6842,7 +6888,7 @@
         <v>47</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z43" s="2">
         <v>1.0</v>
@@ -6874,16 +6920,16 @@
         <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>37</v>
@@ -6916,7 +6962,7 @@
         <v>124</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>34</v>
@@ -6931,7 +6977,7 @@
         <v>47</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Z44" s="2">
         <v>1.0</v>
@@ -6963,16 +7009,16 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>37</v>
@@ -6981,10 +7027,10 @@
         <v>289.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K45" s="2">
         <v>1.0</v>
@@ -7005,7 +7051,7 @@
         <v>124</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>34</v>
@@ -7020,7 +7066,7 @@
         <v>47</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z45" s="2">
         <v>1.0</v>
@@ -7052,16 +7098,16 @@
         <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>37</v>
@@ -7073,7 +7119,7 @@
         <v>70</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K46" s="2">
         <v>1.0</v>
@@ -7094,7 +7140,7 @@
         <v>124</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>34</v>
@@ -7109,7 +7155,7 @@
         <v>47</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z46" s="2">
         <v>1.0</v>
@@ -7141,16 +7187,16 @@
         <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>37</v>
@@ -7159,7 +7205,7 @@
         <v>242.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>84</v>
@@ -7183,7 +7229,7 @@
         <v>124</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>34</v>
@@ -7198,7 +7244,7 @@
         <v>47</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z47" s="2">
         <v>1.0</v>
@@ -7230,16 +7276,16 @@
         <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>37</v>
@@ -7251,7 +7297,7 @@
         <v>70</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K48" s="2">
         <v>1.0</v>
@@ -7272,7 +7318,7 @@
         <v>124</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>34</v>
@@ -7287,7 +7333,7 @@
         <v>47</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z48" s="2">
         <v>1.0</v>
@@ -7319,16 +7365,16 @@
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>37</v>
@@ -7361,7 +7407,7 @@
         <v>43</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>34</v>
@@ -7376,7 +7422,7 @@
         <v>47</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Z49" s="2">
         <v>1.0</v>
@@ -7408,16 +7454,16 @@
         <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>37</v>
@@ -7426,10 +7472,10 @@
         <v>248.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K50" s="2">
         <v>1.0</v>
@@ -7465,7 +7511,7 @@
         <v>47</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z50" s="2">
         <v>1.0</v>
@@ -7497,16 +7543,16 @@
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>37</v>
@@ -7515,7 +7561,7 @@
         <v>173.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>57</v>
@@ -7586,16 +7632,16 @@
         <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>37</v>
@@ -7643,7 +7689,7 @@
         <v>47</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Z52" s="2">
         <v>1.0</v>
@@ -7675,16 +7721,16 @@
         <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>37</v>
@@ -7717,7 +7763,7 @@
         <v>43</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>34</v>
@@ -7764,16 +7810,16 @@
         <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>37</v>
@@ -7785,7 +7831,7 @@
         <v>70</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K54" s="2">
         <v>1.0</v>
@@ -7853,16 +7899,16 @@
         <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>37</v>
@@ -7871,10 +7917,10 @@
         <v>231.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K55" s="2">
         <v>1.0</v>
@@ -7895,7 +7941,7 @@
         <v>43</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>34</v>
@@ -7942,16 +7988,16 @@
         <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>37</v>
@@ -7963,7 +8009,7 @@
         <v>70</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K56" s="2">
         <v>1.0</v>
@@ -7999,7 +8045,7 @@
         <v>47</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Z56" s="2">
         <v>1.0</v>
@@ -8031,16 +8077,16 @@
         <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>37</v>
@@ -8052,7 +8098,7 @@
         <v>70</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K57" s="2">
         <v>1.0</v>
@@ -8088,7 +8134,7 @@
         <v>47</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z57" s="2">
         <v>1.0</v>
@@ -8120,16 +8166,16 @@
         <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>37</v>
@@ -8141,7 +8187,7 @@
         <v>70</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K58" s="2">
         <v>1.0</v>
@@ -8177,7 +8223,7 @@
         <v>47</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Z58" s="2">
         <v>1.0</v>
@@ -8209,16 +8255,16 @@
         <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>37</v>
@@ -8230,7 +8276,7 @@
         <v>70</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K59" s="2">
         <v>1.0</v>
@@ -8251,7 +8297,7 @@
         <v>43</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R59" s="2" t="s">
         <v>34</v>
@@ -8266,7 +8312,7 @@
         <v>47</v>
       </c>
       <c r="Y59" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Z59" s="2">
         <v>1.0</v>
@@ -8298,16 +8344,16 @@
         <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>37</v>
@@ -8319,7 +8365,7 @@
         <v>70</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K60" s="2">
         <v>1.0</v>
@@ -8340,7 +8386,7 @@
         <v>124</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="R60" s="2" t="s">
         <v>34</v>
@@ -8355,7 +8401,7 @@
         <v>47</v>
       </c>
       <c r="Y60" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Z60" s="2">
         <v>1.0</v>
@@ -8387,16 +8433,16 @@
         <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>37</v>
@@ -8408,7 +8454,7 @@
         <v>70</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K61" s="2">
         <v>1.0</v>
@@ -8444,7 +8490,7 @@
         <v>47</v>
       </c>
       <c r="Y61" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z61" s="2">
         <v>1.0</v>
@@ -8476,16 +8522,16 @@
         <v>32</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>37</v>
@@ -8497,7 +8543,7 @@
         <v>70</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K62" s="2">
         <v>1.0</v>
@@ -8518,7 +8564,7 @@
         <v>124</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>34</v>
@@ -8533,7 +8579,7 @@
         <v>47</v>
       </c>
       <c r="Y62" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Z62" s="2">
         <v>1.0</v>
@@ -8565,16 +8611,16 @@
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>37</v>
@@ -8622,7 +8668,7 @@
         <v>47</v>
       </c>
       <c r="Y63" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Z63" s="2">
         <v>1.0</v>
@@ -8654,16 +8700,16 @@
         <v>32</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>37</v>
@@ -8672,10 +8718,10 @@
         <v>320.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K64" s="2">
         <v>1.0</v>
@@ -8696,7 +8742,7 @@
         <v>43</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>34</v>
@@ -8711,7 +8757,7 @@
         <v>47</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z64" s="2">
         <v>1.0</v>
@@ -8743,16 +8789,16 @@
         <v>32</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>37</v>
@@ -8785,7 +8831,7 @@
         <v>43</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>34</v>
@@ -8800,7 +8846,7 @@
         <v>47</v>
       </c>
       <c r="Y65" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z65" s="2">
         <v>1.0</v>
@@ -8832,16 +8878,16 @@
         <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>37</v>
@@ -8874,7 +8920,7 @@
         <v>43</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>34</v>
@@ -8889,7 +8935,7 @@
         <v>47</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Z66" s="2">
         <v>1.0</v>
@@ -8921,16 +8967,16 @@
         <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>37</v>
@@ -8978,7 +9024,7 @@
         <v>47</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z67" s="2">
         <v>1.0</v>
@@ -9010,16 +9056,16 @@
         <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>37</v>
@@ -9028,10 +9074,10 @@
         <v>315.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K68" s="2">
         <v>1.0</v>
@@ -9052,7 +9098,7 @@
         <v>124</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>34</v>
@@ -9067,7 +9113,7 @@
         <v>47</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z68" s="2">
         <v>1.0</v>
@@ -9096,19 +9142,19 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>37</v>
@@ -9120,7 +9166,7 @@
         <v>70</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K69" s="2">
         <v>1.0</v>
@@ -9141,7 +9187,7 @@
         <v>43</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R69" s="2" t="s">
         <v>34</v>
@@ -9188,34 +9234,34 @@
         <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H70" s="2">
         <v>152.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K70" s="2">
         <v>1.0</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>41</v>
@@ -9230,7 +9276,7 @@
         <v>43</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R70" s="2" t="s">
         <v>34</v>
@@ -9245,7 +9291,7 @@
         <v>47</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z70" s="2">
         <v>1.0</v>
@@ -9277,19 +9323,19 @@
         <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H71" s="2">
         <v>189.0</v>
@@ -9298,13 +9344,13 @@
         <v>70</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K71" s="2">
         <v>1.0</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>41</v>
@@ -9334,7 +9380,7 @@
         <v>47</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z71" s="2">
         <v>1.0</v>
@@ -9366,19 +9412,19 @@
         <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H72" s="2">
         <v>272.0</v>
@@ -9393,7 +9439,7 @@
         <v>1.0</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>41</v>
@@ -9408,7 +9454,7 @@
         <v>43</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R72" s="2" t="s">
         <v>34</v>
@@ -9423,7 +9469,7 @@
         <v>47</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Z72" s="2">
         <v>1.0</v>
@@ -9455,19 +9501,19 @@
         <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H73" s="2">
         <v>323.0</v>
@@ -9482,7 +9528,7 @@
         <v>1.0</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>41</v>
@@ -9497,7 +9543,7 @@
         <v>43</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>34</v>
@@ -9512,7 +9558,7 @@
         <v>78</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z73" s="2">
         <v>1.0</v>
@@ -9544,19 +9590,19 @@
         <v>32</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H74" s="2">
         <v>218.0</v>
@@ -9565,13 +9611,13 @@
         <v>70</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K74" s="2">
         <v>1.0</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>41</v>
@@ -9586,7 +9632,7 @@
         <v>43</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>34</v>
@@ -9601,7 +9647,7 @@
         <v>47</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z74" s="2">
         <v>1.0</v>
@@ -9633,19 +9679,19 @@
         <v>32</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H75" s="2">
         <v>332.0</v>
@@ -9660,7 +9706,7 @@
         <v>1.0</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>41</v>
@@ -9690,7 +9736,7 @@
         <v>47</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Z75" s="2">
         <v>1.0</v>
@@ -9722,34 +9768,34 @@
         <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H76" s="2">
         <v>288.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K76" s="2">
         <v>1.0</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>41</v>
@@ -9779,7 +9825,7 @@
         <v>47</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z76" s="2">
         <v>1.0</v>
@@ -9811,19 +9857,19 @@
         <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H77" s="2">
         <v>272.0</v>
@@ -9838,7 +9884,7 @@
         <v>1.0</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>41</v>
@@ -9868,7 +9914,7 @@
         <v>47</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Z77" s="2">
         <v>1.0</v>
@@ -9900,34 +9946,34 @@
         <v>32</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H78" s="2">
         <v>664.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K78" s="2">
         <v>1.0</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>41</v>
@@ -9942,7 +9988,7 @@
         <v>124</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>34</v>
@@ -9957,7 +10003,7 @@
         <v>47</v>
       </c>
       <c r="Y78" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Z78" s="2">
         <v>1.0</v>
@@ -9989,34 +10035,34 @@
         <v>32</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H79" s="2">
         <v>751.0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K79" s="2">
         <v>1.0</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>41</v>
@@ -10031,7 +10077,7 @@
         <v>43</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R79" s="2" t="s">
         <v>34</v>
@@ -10046,7 +10092,7 @@
         <v>47</v>
       </c>
       <c r="Y79" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Z79" s="2">
         <v>1.0</v>
@@ -10067,7 +10113,7 @@
         <v>8.5</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80">
@@ -10078,19 +10124,19 @@
         <v>32</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H80" s="2">
         <v>568.0</v>
@@ -10105,7 +10151,7 @@
         <v>1.0</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>41</v>
@@ -10120,7 +10166,7 @@
         <v>43</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>34</v>
@@ -10135,7 +10181,7 @@
         <v>47</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z80" s="2">
         <v>1.0</v>
@@ -10167,25 +10213,25 @@
         <v>32</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H81" s="2">
         <v>816.0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>39</v>
@@ -10194,7 +10240,7 @@
         <v>1.0</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>41</v>
@@ -10209,7 +10255,7 @@
         <v>43</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R81" s="2" t="s">
         <v>34</v>
@@ -10224,7 +10270,7 @@
         <v>78</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Z81" s="2">
         <v>1.0</v>
@@ -10256,19 +10302,19 @@
         <v>32</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H82" s="2">
         <v>832.0</v>
@@ -10277,13 +10323,13 @@
         <v>70</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K82" s="2">
         <v>1.0</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>41</v>
@@ -10298,7 +10344,7 @@
         <v>43</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R82" s="2" t="s">
         <v>34</v>
@@ -10345,25 +10391,25 @@
         <v>32</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H83" s="2">
         <v>484.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>39</v>
@@ -10372,7 +10418,7 @@
         <v>1.0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>41</v>
@@ -10384,10 +10430,10 @@
         <v>42</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q83" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="R83" s="2" t="s">
         <v>34</v>
@@ -10402,7 +10448,7 @@
         <v>47</v>
       </c>
       <c r="Y83" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Z83" s="2">
         <v>1.0</v>
@@ -10434,19 +10480,19 @@
         <v>32</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H84" s="2">
         <v>336.0</v>
@@ -10455,13 +10501,13 @@
         <v>70</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K84" s="2">
         <v>1.0</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>41</v>
@@ -10491,7 +10537,7 @@
         <v>47</v>
       </c>
       <c r="Y84" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Z84" s="2">
         <v>1.0</v>
@@ -10523,25 +10569,25 @@
         <v>32</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H85" s="2">
         <v>513.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>57</v>
@@ -10550,7 +10596,7 @@
         <v>1.0</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>41</v>
@@ -10565,7 +10611,7 @@
         <v>43</v>
       </c>
       <c r="Q85" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="R85" s="2" t="s">
         <v>34</v>
@@ -10580,7 +10626,7 @@
         <v>47</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Z85" s="2">
         <v>1.0</v>
@@ -10612,7 +10658,7 @@
         <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>51</v>
@@ -10621,10 +10667,10 @@
         <v>166</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H86" s="2">
         <v>642.0</v>
@@ -10633,13 +10679,13 @@
         <v>70</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K86" s="2">
         <v>1.0</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>41</v>
@@ -10669,7 +10715,7 @@
         <v>47</v>
       </c>
       <c r="Y86" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Z86" s="2">
         <v>1.0</v>
@@ -10701,19 +10747,19 @@
         <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H87" s="2">
         <v>405.0</v>
@@ -10722,13 +10768,13 @@
         <v>70</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K87" s="2">
         <v>1.0</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>41</v>
@@ -10743,7 +10789,7 @@
         <v>43</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R87" s="2" t="s">
         <v>34</v>
@@ -10758,7 +10804,7 @@
         <v>47</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Z87" s="2">
         <v>1.0</v>
@@ -10790,34 +10836,34 @@
         <v>32</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H88" s="2">
         <v>329.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K88" s="2">
         <v>1.0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>41</v>
@@ -10832,7 +10878,7 @@
         <v>124</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>34</v>
@@ -10847,7 +10893,7 @@
         <v>47</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Z88" s="2">
         <v>1.0</v>
@@ -10868,7 +10914,7 @@
         <v>8.0</v>
       </c>
       <c r="AF88" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89">
@@ -10879,34 +10925,34 @@
         <v>32</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H89" s="2">
         <v>309.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K89" s="2">
         <v>1.0</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>41</v>
@@ -10921,7 +10967,7 @@
         <v>43</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="R89" s="2" t="s">
         <v>34</v>
@@ -10936,7 +10982,7 @@
         <v>47</v>
       </c>
       <c r="Y89" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Z89" s="2">
         <v>1.0</v>
@@ -10968,34 +11014,34 @@
         <v>32</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H90" s="2">
         <v>268.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K90" s="2">
         <v>1.0</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>41</v>
@@ -11010,7 +11056,7 @@
         <v>43</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>34</v>
@@ -11025,7 +11071,7 @@
         <v>47</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Z90" s="2">
         <v>1.0</v>
@@ -11057,34 +11103,34 @@
         <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H91" s="2">
         <v>187.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K91" s="2">
         <v>1.0</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>41</v>
@@ -11114,7 +11160,7 @@
         <v>47</v>
       </c>
       <c r="Y91" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z91" s="2">
         <v>1.0</v>
@@ -11146,19 +11192,19 @@
         <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H92" s="2">
         <v>226.0</v>
@@ -11173,7 +11219,7 @@
         <v>1.0</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>41</v>
@@ -11203,7 +11249,7 @@
         <v>47</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Z92" s="2">
         <v>1.0</v>
@@ -11235,19 +11281,19 @@
         <v>32</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H93" s="2">
         <v>192.0</v>
@@ -11256,13 +11302,13 @@
         <v>70</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K93" s="2">
         <v>1.0</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>41</v>
@@ -11292,7 +11338,7 @@
         <v>47</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z93" s="2">
         <v>1.0</v>
@@ -11324,19 +11370,19 @@
         <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H94" s="2">
         <v>164.0</v>
@@ -11345,13 +11391,13 @@
         <v>70</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K94" s="2">
         <v>1.0</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>41</v>
@@ -11413,19 +11459,19 @@
         <v>32</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H95" s="2">
         <v>313.0</v>
@@ -11440,7 +11486,7 @@
         <v>1.0</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>41</v>
@@ -11470,7 +11516,7 @@
         <v>47</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Z95" s="2">
         <v>1.0</v>
@@ -11502,19 +11548,19 @@
         <v>32</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H96" s="2">
         <v>464.0</v>
@@ -11523,13 +11569,13 @@
         <v>70</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K96" s="2">
         <v>1.0</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>41</v>
@@ -11544,7 +11590,7 @@
         <v>43</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>34</v>
@@ -11559,7 +11605,7 @@
         <v>78</v>
       </c>
       <c r="Y96" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Z96" s="2">
         <v>1.0</v>
@@ -11591,25 +11637,25 @@
         <v>32</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H97" s="2">
         <v>479.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>57</v>
@@ -11618,7 +11664,7 @@
         <v>1.0</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>41</v>
@@ -11648,7 +11694,7 @@
         <v>47</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z97" s="2">
         <v>1.0</v>
@@ -11680,19 +11726,19 @@
         <v>32</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H98" s="2">
         <v>352.0</v>
@@ -11701,28 +11747,28 @@
         <v>70</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K98" s="2">
         <v>1.0</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>169</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="R98" s="2" t="s">
         <v>34</v>
@@ -11737,7 +11783,7 @@
         <v>47</v>
       </c>
       <c r="Y98" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Z98" s="2">
         <v>1.0</v>
@@ -11769,19 +11815,19 @@
         <v>32</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H99" s="2">
         <v>325.0</v>
@@ -11790,13 +11836,13 @@
         <v>70</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K99" s="2">
         <v>1.0</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>41</v>
@@ -11811,7 +11857,7 @@
         <v>43</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R99" s="2" t="s">
         <v>34</v>
@@ -11826,7 +11872,7 @@
         <v>78</v>
       </c>
       <c r="Y99" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Z99" s="2">
         <v>1.0</v>
@@ -11858,19 +11904,19 @@
         <v>32</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H100" s="2">
         <v>244.0</v>
@@ -11885,7 +11931,7 @@
         <v>1.0</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>41</v>
@@ -11900,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R100" s="2" t="s">
         <v>34</v>
@@ -11947,19 +11993,19 @@
         <v>32</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H101" s="2">
         <v>258.0</v>
@@ -11968,13 +12014,13 @@
         <v>70</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K101" s="2">
         <v>1.0</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>41</v>
@@ -11986,10 +12032,10 @@
         <v>42</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>34</v>
@@ -12004,7 +12050,7 @@
         <v>47</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Z101" s="2">
         <v>1.0</v>
@@ -12036,34 +12082,34 @@
         <v>32</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H102" s="2">
         <v>153.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K102" s="2">
         <v>1.0</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>41</v>
@@ -12075,10 +12121,10 @@
         <v>42</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q102" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="R102" s="2" t="s">
         <v>34</v>
@@ -12093,7 +12139,7 @@
         <v>78</v>
       </c>
       <c r="Y102" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Z102" s="2">
         <v>1.0</v>
@@ -12125,19 +12171,19 @@
         <v>32</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H103" s="2">
         <v>81.0</v>
@@ -12146,13 +12192,13 @@
         <v>70</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K103" s="2">
         <v>1.0</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>41</v>
@@ -12167,7 +12213,7 @@
         <v>124</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R103" s="2" t="s">
         <v>34</v>
@@ -12182,7 +12228,7 @@
         <v>47</v>
       </c>
       <c r="Y103" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Z103" s="2">
         <v>1.0</v>
@@ -12214,19 +12260,19 @@
         <v>32</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H104" s="2">
         <v>126.0</v>
@@ -12235,13 +12281,13 @@
         <v>70</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K104" s="2">
         <v>1.0</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>41</v>
@@ -12256,7 +12302,7 @@
         <v>124</v>
       </c>
       <c r="Q104" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R104" s="2" t="s">
         <v>34</v>
@@ -12271,7 +12317,7 @@
         <v>47</v>
       </c>
       <c r="Y104" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Z104" s="2">
         <v>1.0</v>
@@ -12303,19 +12349,19 @@
         <v>32</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H105" s="2">
         <v>128.0</v>
@@ -12324,13 +12370,13 @@
         <v>70</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K105" s="2">
         <v>1.0</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>41</v>
@@ -12360,7 +12406,7 @@
         <v>47</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="Z105" s="2">
         <v>1.0</v>
@@ -12392,19 +12438,19 @@
         <v>32</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H106" s="2">
         <v>330.0</v>
@@ -12413,13 +12459,13 @@
         <v>70</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K106" s="2">
         <v>1.0</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>41</v>
@@ -12434,7 +12480,7 @@
         <v>43</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R106" s="2" t="s">
         <v>34</v>
@@ -12449,7 +12495,7 @@
         <v>47</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Z106" s="2">
         <v>1.0</v>
@@ -12481,19 +12527,19 @@
         <v>32</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H107" s="2">
         <v>250.0</v>
@@ -12508,7 +12554,7 @@
         <v>1.0</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>41</v>
@@ -12538,7 +12584,7 @@
         <v>47</v>
       </c>
       <c r="Y107" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Z107" s="2">
         <v>1.0</v>
@@ -12570,19 +12616,19 @@
         <v>32</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H108" s="2">
         <v>251.0</v>
@@ -12591,13 +12637,13 @@
         <v>70</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K108" s="2">
         <v>1.0</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>41</v>
@@ -12659,19 +12705,19 @@
         <v>32</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H109" s="2">
         <v>393.0</v>
@@ -12680,13 +12726,13 @@
         <v>70</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K109" s="2">
         <v>1.0</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>41</v>
@@ -12698,10 +12744,10 @@
         <v>42</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q109" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="R109" s="2" t="s">
         <v>34</v>
@@ -12716,7 +12762,7 @@
         <v>47</v>
       </c>
       <c r="Y109" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z109" s="2">
         <v>1.0</v>
@@ -12748,19 +12794,19 @@
         <v>32</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H110" s="2">
         <v>254.0</v>
@@ -12775,7 +12821,7 @@
         <v>1.0</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>41</v>
@@ -12790,7 +12836,7 @@
         <v>43</v>
       </c>
       <c r="Q110" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="R110" s="2" t="s">
         <v>34</v>
@@ -12805,7 +12851,7 @@
         <v>47</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Z110" s="2">
         <v>1.0</v>
@@ -12837,19 +12883,19 @@
         <v>32</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H111" s="2">
         <v>246.0</v>
@@ -12858,13 +12904,13 @@
         <v>70</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K111" s="2">
         <v>1.0</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>41</v>
@@ -12894,7 +12940,7 @@
         <v>47</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z111" s="2">
         <v>1.0</v>
@@ -12926,19 +12972,19 @@
         <v>32</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H112" s="2">
         <v>223.0</v>
@@ -12947,13 +12993,13 @@
         <v>70</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K112" s="2">
         <v>1.0</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>41</v>
@@ -12983,7 +13029,7 @@
         <v>47</v>
       </c>
       <c r="Y112" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Z112" s="2">
         <v>1.0</v>
@@ -13015,19 +13061,19 @@
         <v>32</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H113" s="2">
         <v>189.0</v>
@@ -13036,13 +13082,13 @@
         <v>70</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K113" s="2">
         <v>1.0</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>41</v>
@@ -13072,7 +13118,7 @@
         <v>47</v>
       </c>
       <c r="Y113" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z113" s="2">
         <v>1.0</v>
@@ -13104,19 +13150,19 @@
         <v>32</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H114" s="2">
         <v>219.0</v>
@@ -13131,7 +13177,7 @@
         <v>1.0</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>41</v>
@@ -13143,10 +13189,10 @@
         <v>42</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="R114" s="2" t="s">
         <v>34</v>
@@ -13161,7 +13207,7 @@
         <v>47</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="Z114" s="2">
         <v>1.0</v>
@@ -13193,19 +13239,19 @@
         <v>32</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H115" s="2">
         <v>314.0</v>
@@ -13220,7 +13266,7 @@
         <v>1.0</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>41</v>
@@ -13250,7 +13296,7 @@
         <v>78</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Z115" s="2">
         <v>1.0</v>
@@ -13282,19 +13328,19 @@
         <v>32</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H116" s="2">
         <v>232.0</v>
@@ -13303,13 +13349,13 @@
         <v>70</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K116" s="2">
         <v>1.0</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>41</v>
@@ -13321,10 +13367,10 @@
         <v>42</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="R116" s="2" t="s">
         <v>34</v>
@@ -13339,7 +13385,7 @@
         <v>47</v>
       </c>
       <c r="Y116" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Z116" s="2">
         <v>1.0</v>
@@ -13371,19 +13417,19 @@
         <v>32</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H117" s="2">
         <v>211.0</v>
@@ -13398,7 +13444,7 @@
         <v>1.0</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>41</v>
@@ -13460,19 +13506,19 @@
         <v>32</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H118" s="2">
         <v>221.0</v>
@@ -13481,13 +13527,13 @@
         <v>70</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K118" s="2">
         <v>1.0</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M118" s="2" t="s">
         <v>41</v>
@@ -13517,7 +13563,7 @@
         <v>47</v>
       </c>
       <c r="Y118" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Z118" s="2">
         <v>1.0</v>
@@ -13549,19 +13595,19 @@
         <v>32</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H119" s="2">
         <v>84.0</v>
@@ -13570,13 +13616,13 @@
         <v>70</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K119" s="2">
         <v>1.0</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>41</v>
@@ -13606,7 +13652,7 @@
         <v>47</v>
       </c>
       <c r="Y119" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z119" s="2">
         <v>1.0</v>
@@ -13638,19 +13684,19 @@
         <v>32</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H120" s="2">
         <v>72.0</v>
@@ -13659,13 +13705,13 @@
         <v>70</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K120" s="2">
         <v>1.0</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>41</v>
@@ -13695,7 +13741,7 @@
         <v>47</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="Z120" s="2">
         <v>1.0</v>
@@ -13727,19 +13773,19 @@
         <v>32</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H121" s="2">
         <v>221.0</v>
@@ -13748,13 +13794,13 @@
         <v>70</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K121" s="2">
         <v>1.0</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>41</v>
@@ -13769,7 +13815,7 @@
         <v>43</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="R121" s="2" t="s">
         <v>34</v>
@@ -13784,7 +13830,7 @@
         <v>47</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Z121" s="2">
         <v>1.0</v>
@@ -13816,7 +13862,7 @@
         <v>32</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>51</v>
@@ -13825,10 +13871,10 @@
         <v>166</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H122" s="2">
         <v>435.0</v>
@@ -13837,16 +13883,16 @@
         <v>70</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="K122" s="2">
         <v>1.0</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N122" s="2">
         <v>1962.0</v>
@@ -13905,19 +13951,19 @@
         <v>32</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H123" s="2">
         <v>254.0</v>
@@ -13926,13 +13972,13 @@
         <v>70</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K123" s="2">
         <v>1.0</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>41</v>
@@ -13962,7 +14008,7 @@
         <v>47</v>
       </c>
       <c r="Y123" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="Z123" s="2">
         <v>1.0</v>
@@ -13994,7 +14040,7 @@
         <v>32</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>51</v>
@@ -14003,10 +14049,10 @@
         <v>166</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H124" s="2">
         <v>540.0</v>
@@ -14015,13 +14061,13 @@
         <v>70</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="K124" s="2">
         <v>1.0</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>41</v>
@@ -14051,7 +14097,7 @@
         <v>47</v>
       </c>
       <c r="Y124" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Z124" s="2">
         <v>1.0</v>
@@ -14083,7 +14129,7 @@
         <v>32</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>51</v>
@@ -14092,10 +14138,10 @@
         <v>166</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H125" s="2">
         <v>166.0</v>
@@ -14104,13 +14150,13 @@
         <v>70</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K125" s="2">
         <v>1.0</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>41</v>
@@ -14140,7 +14186,7 @@
         <v>47</v>
       </c>
       <c r="Y125" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Z125" s="2">
         <v>1.0</v>
@@ -14172,19 +14218,19 @@
         <v>32</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H126" s="2">
         <v>222.0</v>
@@ -14199,7 +14245,7 @@
         <v>1.0</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>41</v>
@@ -14229,7 +14275,7 @@
         <v>47</v>
       </c>
       <c r="Y126" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Z126" s="2">
         <v>1.0</v>
@@ -14261,19 +14307,19 @@
         <v>32</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H127" s="2">
         <v>224.0</v>
@@ -14282,13 +14328,13 @@
         <v>70</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K127" s="2">
         <v>1.0</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>41</v>
@@ -14303,7 +14349,7 @@
         <v>43</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="R127" s="2" t="s">
         <v>34</v>
@@ -14350,7 +14396,7 @@
         <v>32</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>51</v>
@@ -14359,10 +14405,10 @@
         <v>166</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H128" s="2">
         <v>296.0</v>
@@ -14371,13 +14417,13 @@
         <v>70</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K128" s="2">
         <v>1.0</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>41</v>
@@ -14407,7 +14453,7 @@
         <v>47</v>
       </c>
       <c r="Y128" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="Z128" s="2">
         <v>1.0</v>
@@ -14439,19 +14485,19 @@
         <v>32</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H129" s="2">
         <v>335.0</v>
@@ -14466,7 +14512,7 @@
         <v>1.0</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>41</v>
@@ -14481,7 +14527,7 @@
         <v>43</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="R129" s="2" t="s">
         <v>34</v>
@@ -14496,7 +14542,7 @@
         <v>47</v>
       </c>
       <c r="Y129" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="Z129" s="2">
         <v>1.0</v>
@@ -14528,7 +14574,7 @@
         <v>32</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>51</v>
@@ -14537,10 +14583,10 @@
         <v>166</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H130" s="2">
         <v>450.0</v>
@@ -14549,13 +14595,13 @@
         <v>70</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K130" s="2">
         <v>1.0</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M130" s="2" t="s">
         <v>41</v>
@@ -14585,7 +14631,7 @@
         <v>47</v>
       </c>
       <c r="Y130" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="Z130" s="2">
         <v>1.0</v>
@@ -14617,7 +14663,7 @@
         <v>32</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>51</v>
@@ -14626,10 +14672,10 @@
         <v>166</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H131" s="2">
         <v>248.0</v>
@@ -14638,13 +14684,13 @@
         <v>70</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K131" s="2">
         <v>1.0</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>41</v>
@@ -14674,7 +14720,7 @@
         <v>47</v>
       </c>
       <c r="Y131" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z131" s="2">
         <v>1.0</v>
@@ -14706,7 +14752,7 @@
         <v>32</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>51</v>
@@ -14715,10 +14761,10 @@
         <v>166</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H132" s="2">
         <v>143.0</v>
@@ -14727,13 +14773,13 @@
         <v>70</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K132" s="2">
         <v>1.0</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M132" s="2" t="s">
         <v>41</v>
@@ -14748,7 +14794,7 @@
         <v>43</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="R132" s="2" t="s">
         <v>34</v>
@@ -14763,7 +14809,7 @@
         <v>47</v>
       </c>
       <c r="Y132" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="Z132" s="2">
         <v>1.0</v>
@@ -14795,19 +14841,19 @@
         <v>32</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H133" s="2">
         <v>256.0</v>
@@ -14816,13 +14862,13 @@
         <v>70</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K133" s="2">
         <v>1.0</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>41</v>
@@ -14852,7 +14898,7 @@
         <v>47</v>
       </c>
       <c r="Y133" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Z133" s="2">
         <v>1.0</v>
@@ -14884,7 +14930,7 @@
         <v>32</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>51</v>
@@ -14893,10 +14939,10 @@
         <v>166</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H134" s="2">
         <v>102.0</v>
@@ -14905,13 +14951,13 @@
         <v>70</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K134" s="2">
         <v>1.0</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>41</v>
@@ -14941,7 +14987,7 @@
         <v>47</v>
       </c>
       <c r="Y134" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="Z134" s="2">
         <v>1.0</v>
@@ -14973,7 +15019,7 @@
         <v>32</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>51</v>
@@ -14982,10 +15028,10 @@
         <v>166</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H135" s="2">
         <v>377.0</v>
@@ -15000,7 +15046,7 @@
         <v>1.0</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M135" s="2" t="s">
         <v>41</v>
@@ -15030,7 +15076,7 @@
         <v>47</v>
       </c>
       <c r="Y135" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Z135" s="2">
         <v>1.0</v>
@@ -15062,7 +15108,7 @@
         <v>32</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>51</v>
@@ -15071,10 +15117,10 @@
         <v>166</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H136" s="2">
         <v>84.0</v>
@@ -15089,7 +15135,7 @@
         <v>1.0</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>41</v>
@@ -15119,7 +15165,7 @@
         <v>47</v>
       </c>
       <c r="Y136" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="Z136" s="2">
         <v>1.0</v>
@@ -15151,7 +15197,7 @@
         <v>32</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>51</v>
@@ -15160,10 +15206,10 @@
         <v>166</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H137" s="2">
         <v>72.0</v>
@@ -15172,13 +15218,13 @@
         <v>70</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K137" s="2">
         <v>1.0</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M137" s="2" t="s">
         <v>41</v>
@@ -15208,7 +15254,7 @@
         <v>47</v>
       </c>
       <c r="Y137" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="Z137" s="2">
         <v>1.0</v>
@@ -15240,19 +15286,19 @@
         <v>32</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H138" s="2">
         <v>76.0</v>
@@ -15267,7 +15313,7 @@
         <v>1.0</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M138" s="2" t="s">
         <v>41</v>
@@ -15297,7 +15343,7 @@
         <v>47</v>
       </c>
       <c r="Y138" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="Z138" s="2">
         <v>1.0</v>
@@ -15329,19 +15375,19 @@
         <v>32</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H139" s="2">
         <v>161.0</v>
@@ -15350,13 +15396,13 @@
         <v>70</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K139" s="2">
         <v>1.0</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M139" s="2" t="s">
         <v>41</v>
@@ -15371,7 +15417,7 @@
         <v>43</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="R139" s="2" t="s">
         <v>34</v>
@@ -15386,7 +15432,7 @@
         <v>47</v>
       </c>
       <c r="Y139" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Z139" s="2">
         <v>1.0</v>
@@ -15418,7 +15464,7 @@
         <v>32</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>51</v>
@@ -15427,10 +15473,10 @@
         <v>166</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H140" s="2">
         <v>206.0</v>
@@ -15439,13 +15485,13 @@
         <v>70</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K140" s="2">
         <v>1.0</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M140" s="2" t="s">
         <v>41</v>
@@ -15475,7 +15521,7 @@
         <v>47</v>
       </c>
       <c r="Y140" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="Z140" s="2">
         <v>1.0</v>
@@ -15507,19 +15553,19 @@
         <v>32</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H141" s="2">
         <v>74.0</v>
@@ -15528,13 +15574,13 @@
         <v>70</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K141" s="2">
         <v>1.0</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>41</v>
@@ -15564,7 +15610,7 @@
         <v>47</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="Z141" s="2">
         <v>1.0</v>
@@ -15596,7 +15642,7 @@
         <v>32</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>51</v>
@@ -15605,10 +15651,10 @@
         <v>166</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H142" s="2">
         <v>140.0</v>
@@ -15617,13 +15663,13 @@
         <v>70</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K142" s="2">
         <v>1.0</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>41</v>
@@ -15653,7 +15699,7 @@
         <v>47</v>
       </c>
       <c r="Y142" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="Z142" s="2">
         <v>1.0</v>
@@ -15685,7 +15731,7 @@
         <v>32</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>51</v>
@@ -15694,10 +15740,10 @@
         <v>166</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H143" s="2">
         <v>144.0</v>
@@ -15706,13 +15752,13 @@
         <v>70</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K143" s="2">
         <v>1.0</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M143" s="2" t="s">
         <v>41</v>
@@ -15742,7 +15788,7 @@
         <v>47</v>
       </c>
       <c r="Y143" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Z143" s="2">
         <v>1.0</v>
@@ -15774,19 +15820,19 @@
         <v>32</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H144" s="2">
         <v>120.0</v>
@@ -15795,13 +15841,13 @@
         <v>70</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K144" s="2">
         <v>1.0</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M144" s="2" t="s">
         <v>41</v>
@@ -15816,7 +15862,7 @@
         <v>43</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="R144" s="2" t="s">
         <v>34</v>
@@ -15831,7 +15877,7 @@
         <v>47</v>
       </c>
       <c r="Y144" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="Z144" s="2">
         <v>1.0</v>
@@ -15863,7 +15909,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>51</v>
@@ -15872,10 +15918,10 @@
         <v>166</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H145" s="2">
         <v>86.0</v>
@@ -15884,13 +15930,13 @@
         <v>70</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K145" s="2">
         <v>1.0</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>41</v>
@@ -15920,7 +15966,7 @@
         <v>47</v>
       </c>
       <c r="Y145" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Z145" s="2">
         <v>1.0</v>
@@ -15949,40 +15995,40 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K146" s="2">
         <v>1.0</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>70</v>
@@ -15991,10 +16037,10 @@
         <v>42</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R146" s="2" t="s">
         <v>34</v>
@@ -16038,22 +16084,22 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H147" s="2">
         <v>426.0</v>
@@ -16068,10 +16114,10 @@
         <v>1.0</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N147" s="2">
         <v>2017.0</v>
@@ -16080,10 +16126,10 @@
         <v>42</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R147" s="2" t="s">
         <v>34</v>
@@ -16127,22 +16173,22 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H148" s="2">
         <v>479.0</v>
@@ -16151,16 +16197,16 @@
         <v>70</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K148" s="2">
         <v>1.0</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N148" s="2">
         <v>2019.0</v>
@@ -16169,10 +16215,10 @@
         <v>42</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R148" s="2" t="s">
         <v>34</v>
@@ -16216,22 +16262,22 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H149" s="2">
         <v>52.0</v>
@@ -16240,16 +16286,16 @@
         <v>70</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K149" s="2">
         <v>1.0</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N149" s="2">
         <v>2019.0</v>
@@ -16305,22 +16351,22 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H150" s="2">
         <v>298.0</v>
@@ -16329,16 +16375,16 @@
         <v>70</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="K150" s="2">
         <v>1.0</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N150" s="2">
         <v>2017.0</v>
@@ -16347,10 +16393,10 @@
         <v>42</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="R150" s="2" t="s">
         <v>34</v>
@@ -16394,22 +16440,22 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H151" s="2">
         <v>522.0</v>
@@ -16418,16 +16464,16 @@
         <v>70</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="K151" s="2">
         <v>1.0</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N151" s="2">
         <v>2012.0</v>
@@ -16436,10 +16482,10 @@
         <v>42</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="R151" s="2" t="s">
         <v>34</v>
@@ -16483,25 +16529,25 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>70</v>
@@ -16513,10 +16559,10 @@
         <v>1.0</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N152" s="2">
         <v>2009.0</v>
@@ -16528,7 +16574,7 @@
         <v>124</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R152" s="2" t="s">
         <v>34</v>
@@ -16572,22 +16618,22 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H153" s="2">
         <v>75.0</v>
@@ -16596,16 +16642,16 @@
         <v>70</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K153" s="2">
         <v>1.0</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N153" s="2">
         <v>2011.0</v>
@@ -16614,10 +16660,10 @@
         <v>42</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="R153" s="2" t="s">
         <v>51</v>
@@ -16664,19 +16710,19 @@
         <v>32</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H154" s="2">
         <v>238.0</v>
@@ -16691,7 +16737,7 @@
         <v>1.0</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M154" s="2" t="s">
         <v>41</v>
@@ -16765,7 +16811,7 @@
         <v>767</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H155" s="2">
         <v>296.0</v>
@@ -16780,7 +16826,7 @@
         <v>1.0</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>41</v>
@@ -16854,7 +16900,7 @@
         <v>771</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H156" s="2">
         <v>210.0</v>
@@ -16869,7 +16915,7 @@
         <v>1.0</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>41</v>
@@ -16884,7 +16930,7 @@
         <v>124</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R156" s="2" t="s">
         <v>51</v>
@@ -16937,13 +16983,13 @@
         <v>51</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>775</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H157" s="2">
         <v>606.0</v>
@@ -16958,7 +17004,7 @@
         <v>1.0</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>41</v>
@@ -16973,7 +17019,7 @@
         <v>124</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R157" s="2" t="s">
         <v>51</v>
@@ -17032,7 +17078,7 @@
         <v>779</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H158" s="2">
         <v>329.0</v>
@@ -17047,7 +17093,7 @@
         <v>1.0</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>41</v>
@@ -17121,7 +17167,7 @@
         <v>782</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H159" s="2">
         <v>452.0</v>
@@ -17136,7 +17182,7 @@
         <v>1.0</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M159" s="2" t="s">
         <v>41</v>
@@ -17210,7 +17256,7 @@
         <v>786</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H160" s="2">
         <v>467.0</v>
@@ -17225,7 +17271,7 @@
         <v>1.0</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>41</v>
@@ -17299,7 +17345,7 @@
         <v>790</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H161" s="2">
         <v>254.0</v>
@@ -17314,7 +17360,7 @@
         <v>1.0</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>41</v>
@@ -17388,7 +17434,7 @@
         <v>793</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H162" s="2">
         <v>256.0</v>
@@ -17403,10 +17449,10 @@
         <v>1.0</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N162" s="2">
         <v>2020.0</v>
@@ -17471,13 +17517,13 @@
         <v>51</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>797</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H163" s="2">
         <v>128.0</v>
@@ -17486,13 +17532,13 @@
         <v>70</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K163" s="2">
         <v>1.0</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>41</v>
@@ -17563,10 +17609,10 @@
         <v>166</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H164" s="2">
         <v>328.0</v>
@@ -17581,7 +17627,7 @@
         <v>1.0</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>41</v>
@@ -17655,7 +17701,7 @@
         <v>806</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H165" s="2">
         <v>216.0</v>
@@ -17670,7 +17716,7 @@
         <v>1.0</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M165" s="2" t="s">
         <v>41</v>
@@ -17744,7 +17790,7 @@
         <v>810</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H166" s="2">
         <v>391.0</v>
@@ -17753,13 +17799,13 @@
         <v>70</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K166" s="2">
         <v>1.0</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>41</v>
@@ -17833,7 +17879,7 @@
         <v>810</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H167" s="2">
         <v>152.0</v>
@@ -17842,13 +17888,13 @@
         <v>70</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K167" s="2">
         <v>1.0</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M167" s="2" t="s">
         <v>41</v>
@@ -17922,7 +17968,7 @@
         <v>815</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H168" s="2">
         <v>435.0</v>
@@ -17937,7 +17983,7 @@
         <v>1.0</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>41</v>
@@ -18011,7 +18057,7 @@
         <v>810</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H169" s="2">
         <v>122.0</v>
@@ -18026,7 +18072,7 @@
         <v>1.0</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M169" s="2" t="s">
         <v>41</v>
@@ -18100,7 +18146,7 @@
         <v>820</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H170" s="2">
         <v>103.0</v>
@@ -18109,13 +18155,13 @@
         <v>70</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K170" s="2">
         <v>1.0</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>41</v>
@@ -18183,13 +18229,13 @@
         <v>51</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>823</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H171" s="2">
         <v>89.0</v>
@@ -18204,7 +18250,7 @@
         <v>1.0</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>41</v>
@@ -18278,7 +18324,7 @@
         <v>826</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H172" s="2">
         <v>106.0</v>
@@ -18287,13 +18333,13 @@
         <v>70</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K172" s="2">
         <v>1.0</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>41</v>
@@ -18367,7 +18413,7 @@
         <v>829</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H173" s="2">
         <v>80.0</v>
@@ -18382,7 +18428,7 @@
         <v>1.0</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>41</v>
@@ -18441,7 +18487,7 @@
         <v>173.0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>832</v>
@@ -18456,7 +18502,7 @@
         <v>834</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H174" s="2">
         <v>457.0</v>
@@ -18483,10 +18529,10 @@
         <v>42</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="R174" s="2" t="s">
         <v>51</v>
@@ -18545,7 +18591,7 @@
         <v>839</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H175" s="2">
         <v>134.0</v>
@@ -18554,13 +18600,13 @@
         <v>70</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K175" s="2">
         <v>1.0</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M175" s="2" t="s">
         <v>41</v>
@@ -18628,13 +18674,13 @@
         <v>51</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>843</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H176" s="2">
         <v>12.0</v>
@@ -18649,7 +18695,7 @@
         <v>1.0</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>41</v>
@@ -18717,13 +18763,13 @@
         <v>51</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>848</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H177" s="2">
         <v>130.0</v>
@@ -18738,7 +18784,7 @@
         <v>1.0</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>41</v>
@@ -18812,7 +18858,7 @@
         <v>853</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>762</v>
+        <v>185</v>
       </c>
       <c r="H178" s="2">
         <v>72.0</v>
@@ -18827,7 +18873,7 @@
         <v>1.0</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>763</v>
+        <v>187</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>41</v>
@@ -18928,10 +18974,10 @@
         <v>42</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R179" s="4" t="s">
         <v>34</v>
@@ -19020,7 +19066,7 @@
         <v>42</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>866</v>
@@ -19168,7 +19214,7 @@
         <v>51</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>873</v>
@@ -19183,7 +19229,7 @@
         <v>874</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K182" s="2">
         <v>1.0</v>
@@ -19293,7 +19339,7 @@
         <v>43</v>
       </c>
       <c r="Q183" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R183" s="2" t="s">
         <v>34</v>
@@ -19361,7 +19407,7 @@
         <v>70</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K184" s="2">
         <v>1.0</v>
@@ -19382,7 +19428,7 @@
         <v>43</v>
       </c>
       <c r="Q184" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R184" s="2" t="s">
         <v>34</v>
@@ -19539,7 +19585,7 @@
         <v>888</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K186" s="2">
         <v>1.0</v>
@@ -19560,7 +19606,7 @@
         <v>43</v>
       </c>
       <c r="Q186" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R186" s="2" t="s">
         <v>34</v>
@@ -19613,13 +19659,13 @@
         <v>51</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>891</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H187" s="2">
         <v>349.0</v>
@@ -19628,13 +19674,13 @@
         <v>70</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K187" s="2">
         <v>1.0</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>41</v>
@@ -19649,7 +19695,7 @@
         <v>43</v>
       </c>
       <c r="Q187" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="R187" s="2" t="s">
         <v>34</v>
@@ -19708,7 +19754,7 @@
         <v>895</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H188" s="2">
         <v>333.0</v>
@@ -19723,7 +19769,7 @@
         <v>1.0</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M188" s="2" t="s">
         <v>41</v>
@@ -19735,7 +19781,7 @@
         <v>42</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q188" s="2" t="s">
         <v>897</v>
@@ -19797,7 +19843,7 @@
         <v>901</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H189" s="2">
         <v>331.0</v>
@@ -19812,7 +19858,7 @@
         <v>1.0</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>41</v>
@@ -19827,7 +19873,7 @@
         <v>43</v>
       </c>
       <c r="Q189" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R189" s="2" t="s">
         <v>34</v>
@@ -19864,6 +19910,362 @@
       </c>
       <c r="AF189" s="2" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>189.0</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H190" s="2">
+        <v>768.0</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K190" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L190" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N190" s="2">
+        <v>2009.0</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P190" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="R190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S190" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V190" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y190" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z190" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA190" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB190" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD190" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE190" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="AF190" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>190.0</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H191" s="2">
+        <v>472.0</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L191" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N191" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P191" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="R191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S191" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V191" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X191" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y191" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z191" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA191" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB191" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD191" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE191" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="AF191" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>191.0</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H192" s="2">
+        <v>330.0</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K192" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L192" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N192" s="2">
+        <v>1985.0</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="R192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S192" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V192" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X192" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y192" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z192" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA192" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB192" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE192" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="AF192" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>192.0</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H193" s="2">
+        <v>222.0</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K193" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L193" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N193" s="2">
+        <v>1982.0</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P193" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="R193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S193" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V193" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X193" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y193" s="2">
+        <v>9.780393301359E12</v>
+      </c>
+      <c r="Z193" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA193" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB193" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE193" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="AF193" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="CompleteBookDBTill13thApril2022" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CompleteBookDBTill14thApril2022" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="928">
   <si>
     <t>BookID</t>
   </si>
@@ -2768,6 +2768,33 @@
   </si>
   <si>
     <t>My Voice Will Go With You</t>
+  </si>
+  <si>
+    <t>The Prince</t>
+  </si>
+  <si>
+    <t>Niccolo Machiavelli</t>
+  </si>
+  <si>
+    <t>978-81-7599-307-5</t>
+  </si>
+  <si>
+    <t>Titan The Life Of John D. Rockerfeller , SR.</t>
+  </si>
+  <si>
+    <t>Ron Chernow</t>
+  </si>
+  <si>
+    <t>The Biography Of John D. Rockerfeller, SR.</t>
+  </si>
+  <si>
+    <t>The Wall Street Journal</t>
+  </si>
+  <si>
+    <t>Rs. 788</t>
+  </si>
+  <si>
+    <t>978-1-4000-7730-4</t>
   </si>
 </sst>
 </file>
@@ -20268,6 +20295,184 @@
         <v>101</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>193.0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H194" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="K194" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N194" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P194" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="R194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S194" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V194" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X194" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y194" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="Z194" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA194" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB194" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE194" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="AF194" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>194.0</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H195" s="2">
+        <v>774.0</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="K195" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L195" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N195" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P195" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S195" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V195" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X195" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y195" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z195" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA195" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB195" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC195" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD195" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE195" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="AF195" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="934">
   <si>
     <t>BookID</t>
   </si>
@@ -2795,6 +2795,24 @@
   </si>
   <si>
     <t>978-1-4000-7730-4</t>
+  </si>
+  <si>
+    <t>The Analects</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Collection oF confucious's sayings</t>
+  </si>
+  <si>
+    <t>Rs. 313</t>
+  </si>
+  <si>
+    <t>Humane</t>
+  </si>
+  <si>
+    <t>978-0-140-44348-6</t>
   </si>
 </sst>
 </file>
@@ -20473,6 +20491,95 @@
         <v>101</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>195.0</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H196" s="2">
+        <v>249.0</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="K196" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L196" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N196" s="2">
+        <v>1979.0</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P196" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="R196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S196" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V196" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X196" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y196" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="Z196" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA196" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB196" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE196" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="AF196" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="948">
   <si>
     <t>BookID</t>
   </si>
@@ -2813,6 +2813,48 @@
   </si>
   <si>
     <t>978-0-140-44348-6</t>
+  </si>
+  <si>
+    <t>Why I Am An Atheist</t>
+  </si>
+  <si>
+    <t>Bhagat Singh</t>
+  </si>
+  <si>
+    <t>All Works Of Bhagat Singh</t>
+  </si>
+  <si>
+    <t>978-93-87022-81-2</t>
+  </si>
+  <si>
+    <t>My Inventions</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Biography Of One Of The Greatest Inventors Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Rs. 129</t>
+  </si>
+  <si>
+    <t>978-93-5440-147-3</t>
+  </si>
+  <si>
+    <t>My Life In Full</t>
+  </si>
+  <si>
+    <t>Indra Nooyi</t>
+  </si>
+  <si>
+    <t>Biography Of Indra Nooyi</t>
+  </si>
+  <si>
+    <t>Hilary Clinton , Sachin Tendulkar</t>
+  </si>
+  <si>
+    <t>978-93-89253-81-8</t>
   </si>
 </sst>
 </file>
@@ -20580,6 +20622,273 @@
         <v>101</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>196.0</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H197" s="2">
+        <v>126.0</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K197" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L197" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N197" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="R197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S197" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V197" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X197" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y197" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="Z197" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA197" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB197" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE197" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="AF197" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>197.0</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H198" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="K198" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L198" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N198" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P198" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S198" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V198" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X198" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y198" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="Z198" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA198" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB198" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD198" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE198" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="AF198" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>198.0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H199" s="2">
+        <v>313.0</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K199" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N199" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V199" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X199" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y199" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z199" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB199" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC199" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD199" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE199" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="AF199" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="953">
   <si>
     <t>BookID</t>
   </si>
@@ -2855,6 +2855,21 @@
   </si>
   <si>
     <t>978-93-89253-81-8</t>
+  </si>
+  <si>
+    <t>The Story Of My Life</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Biography Of Helen Keller</t>
+  </si>
+  <si>
+    <t>Rs. 139</t>
+  </si>
+  <si>
+    <t>978-81-7599-403-4</t>
   </si>
 </sst>
 </file>
@@ -20889,6 +20904,95 @@
         <v>101</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>199.0</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H200" s="2">
+        <v>408.0</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K200" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N200" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V200" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="Z200" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC200" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE200" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="AF200" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="977">
   <si>
     <t>BookID</t>
   </si>
@@ -2870,6 +2870,78 @@
   </si>
   <si>
     <t>978-81-7599-403-4</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Biography Of Will Smith</t>
+  </si>
+  <si>
+    <t>Rs. 239</t>
+  </si>
+  <si>
+    <t>978-1-529-12416-3</t>
+  </si>
+  <si>
+    <t>Hooked</t>
+  </si>
+  <si>
+    <t>Nir Eyal</t>
+  </si>
+  <si>
+    <t>How to make habit forming products</t>
+  </si>
+  <si>
+    <t>Matt Mullenweg , Mave McLure</t>
+  </si>
+  <si>
+    <t>Rs. 169</t>
+  </si>
+  <si>
+    <t>978-0-241-184483-7</t>
+  </si>
+  <si>
+    <t>The Obstacle Is The Way</t>
+  </si>
+  <si>
+    <t>Turning Adversity Into Advantage</t>
+  </si>
+  <si>
+    <t>978-1-7812-5148-5</t>
+  </si>
+  <si>
+    <t>The Courage To Be Disliked</t>
+  </si>
+  <si>
+    <t>Ichiro Kishimi</t>
+  </si>
+  <si>
+    <t>How to free yourself and achieve real happiness</t>
+  </si>
+  <si>
+    <t>Rs. 159</t>
+  </si>
+  <si>
+    <t>978-1-76063-072-0</t>
+  </si>
+  <si>
+    <t>the 5 Second Rule</t>
+  </si>
+  <si>
+    <t>Mel Robbins</t>
+  </si>
+  <si>
+    <t>Transform Your Life With Everyday Courage</t>
+  </si>
+  <si>
+    <t>Rs. 210</t>
+  </si>
+  <si>
+    <t>978-1-68261-238-5</t>
   </si>
 </sst>
 </file>
@@ -20993,6 +21065,451 @@
         <v>101</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H201" s="2">
+        <v>418.0</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="K201" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N201" s="2">
+        <v>2021.0</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V201" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="Z201" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB201" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE201" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AF201" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H202" s="2">
+        <v>246.0</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="K202" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N202" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V202" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z202" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB202" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC202" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE202" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AF202" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>202.0</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H203" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="K203" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N203" s="2">
+        <v>2014.0</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V203" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y203" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="Z203" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB203" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC203" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE203" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AF203" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>203.0</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H204" s="2">
+        <v>272.0</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="K204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N204" s="2">
+        <v>2018.0</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V204" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X204" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y204" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="Z204" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB204" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC204" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE204" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AF204" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>204.0</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205" s="2">
+        <v>238.0</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K205" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N205" s="2">
+        <v>2017.0</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q205" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V205" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y205" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="Z205" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB205" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC205" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE205" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="AF205" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="982">
   <si>
     <t>BookID</t>
   </si>
@@ -2942,6 +2942,21 @@
   </si>
   <si>
     <t>978-1-68261-238-5</t>
+  </si>
+  <si>
+    <t>Valkavilirundu Gangai Varai</t>
+  </si>
+  <si>
+    <t>Ragula Sangiruthiyayan</t>
+  </si>
+  <si>
+    <t>History of Indian Subconttnent</t>
+  </si>
+  <si>
+    <t>Aringar Anna</t>
+  </si>
+  <si>
+    <t>81-89628-11-9</t>
   </si>
 </sst>
 </file>
@@ -21510,6 +21525,95 @@
         <v>101</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>205.0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H206" s="2">
+        <v>600.0</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K206" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N206" s="2">
+        <v>2019.0</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V206" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X206" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y206" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="Z206" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA206" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB206" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC206" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD206" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE206" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AF206" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/HomeLibrary.xlsx
+++ b/HomeLibrary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="988">
   <si>
     <t>BookID</t>
   </si>
@@ -2957,6 +2957,24 @@
   </si>
   <si>
     <t>81-89628-11-9</t>
+  </si>
+  <si>
+    <t>Meditations</t>
+  </si>
+  <si>
+    <t>Marcus Aurelius</t>
+  </si>
+  <si>
+    <t>Thoughts Of Roman Emperor</t>
+  </si>
+  <si>
+    <t>Rs. 279</t>
+  </si>
+  <si>
+    <t>Thoughts Of Emperor</t>
+  </si>
+  <si>
+    <t>978-0-140-44933-4</t>
   </si>
 </sst>
 </file>
@@ -21614,6 +21632,95 @@
         <v>101</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>206.0</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H207" s="2">
+        <v>254.0</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="K207" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N207" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V207" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="X207" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y207" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="Z207" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB207" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC207" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE207" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AF207" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
